--- a/Documents/System Architecture Design v.1.0.xlsx
+++ b/Documents/System Architecture Design v.1.0.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\Study\EBC 5380 Systems and Architectures for Electronic Commerce\Project\part 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\Study\EBC 5380 Systems and Architectures for Electronic Commerce\Project\CDSTORE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="0" windowWidth="24816" windowHeight="15084"/>
+    <workbookView xWindow="4416" yWindow="0" windowWidth="24816" windowHeight="15084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="System Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Servlet Detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Pages</t>
   </si>
@@ -200,9 +199,6 @@
     <t>Landing (Redirect) page</t>
   </si>
   <si>
-    <t>check login status and pass shopping cart in session</t>
-  </si>
-  <si>
     <t>Checkout (Succeed)
 Login (Fail)</t>
   </si>
@@ -282,13 +278,44 @@
   </si>
   <si>
     <t>Description (Functions)</t>
+  </si>
+  <si>
+    <t>Servlet Filter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intercept requests from a client before they access a resource at back end.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Check login status when going to Checkout, Account or Order Detail page
+Check login user and submitted order info when purchasing order.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/servlets/servlets-writing-filters.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +354,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,10 +602,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,69 +623,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,18 +704,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -964,63 +1010,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1030,10 +1076,10 @@
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1043,10 +1089,10 @@
       <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1056,10 +1102,10 @@
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1071,10 +1117,10 @@
       <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1084,10 +1130,10 @@
       <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1097,10 +1143,10 @@
       <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1110,10 +1156,10 @@
       <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1125,10 +1171,10 @@
       <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1184,7 @@
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1153,10 +1199,10 @@
       <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1168,10 +1214,10 @@
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1181,10 +1227,10 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1196,10 +1242,10 @@
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1255,7 @@
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1224,7 +1270,7 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1239,10 +1285,10 @@
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1254,10 +1300,10 @@
       <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1267,10 +1313,10 @@
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1280,10 +1326,10 @@
       <c r="D23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1293,10 +1339,10 @@
       <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1306,10 +1352,10 @@
       <c r="D25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1319,14 +1365,14 @@
       <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>36</v>
@@ -1334,22 +1380,22 @@
       <c r="D27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1372,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,20 +1432,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1421,8 +1467,8 @@
       <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>77</v>
+      <c r="C4" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,43 +1487,43 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>61</v>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1485,10 +1531,10 @@
         <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1496,35 +1542,50 @@
         <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="16" t="s">
         <v>74</v>
       </c>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="15" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>